--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Task Nature" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$B$1:$L$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$B$1:$M$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="271">
   <si>
     <t xml:space="preserve">Task_ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">Completion Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature</t>
   </si>
   <si>
@@ -783,6 +786,45 @@
   </si>
   <si>
     <t xml:space="preserve">Handover existing Team support Tasks to Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy Task 11</t>
   </si>
   <si>
     <t xml:space="preserve">Task Category</t>
@@ -803,9 +845,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -840,13 +882,6 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -907,11 +942,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,10 +964,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -937,10 +976,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1169,29 +1204,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M166" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N166" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N166">
     <filterColumn colId="6">
-      <customFilters and="false">
+      <customFilters and="true">
         <customFilter operator="equal" val="Ad-hoc"/>
-        <customFilter operator="**none**" val=""/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" name="Task_ID"/>
     <tableColumn id="2" name="Assigner"/>
     <tableColumn id="3" name="Next Sprint? "/>
     <tableColumn id="4" name="Completed"/>
     <tableColumn id="5" name="Task Set Date"/>
     <tableColumn id="6" name="Completion Date"/>
-    <tableColumn id="7" name="Nature"/>
-    <tableColumn id="8" name="Roadblock"/>
-    <tableColumn id="9" name="Task_Description"/>
-    <tableColumn id="10" name="tASK_PRIORITY"/>
-    <tableColumn id="11" name="Hours"/>
-    <tableColumn id="12" name="Task_workload FTE"/>
-    <tableColumn id="13" name="Closing Comment (If Applicable)"/>
+    <tableColumn id="7" name="Deadline"/>
+    <tableColumn id="8" name="Nature"/>
+    <tableColumn id="9" name="Roadblock"/>
+    <tableColumn id="10" name="Task_Description"/>
+    <tableColumn id="11" name="tASK_PRIORITY"/>
+    <tableColumn id="12" name="Hours"/>
+    <tableColumn id="13" name="Task_workload FTE"/>
+    <tableColumn id="14" name="Closing Comment (If Applicable)"/>
   </tableColumns>
 </table>
 </file>
@@ -1201,69 +1236,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G155" activeCellId="0" sqref="G155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="56.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="29.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,36 +1310,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -1310,36 +1349,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -1349,36 +1388,36 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="I4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -1388,38 +1427,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="1" t="n">
         <v>44407</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>6.45161290322581</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>23</v>
+      <c r="N5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,41 +1466,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="1" t="n">
         <v>44398</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>2.58064516129032</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>27</v>
+      <c r="N6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,36 +1508,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.774193548387097</v>
       </c>
@@ -1508,36 +1547,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="I8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1547,36 +1586,36 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1586,36 +1625,36 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="1" t="n">
         <v>44356</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="I10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1625,36 +1664,36 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>44354</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="I11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -1664,41 +1703,41 @@
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="1" t="n">
         <v>44407</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.516129032258065</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>23</v>
+      <c r="N12" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,36 +1745,36 @@
         <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -1745,36 +1784,36 @@
         <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1784,36 +1823,36 @@
         <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1823,36 +1862,36 @@
         <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="1" t="n">
         <v>44357</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="I16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -1862,36 +1901,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="1" t="n">
         <v>44357</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="I17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
@@ -1901,36 +1940,36 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="1" t="n">
         <v>44357</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="I18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -1940,36 +1979,36 @@
         <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -1979,36 +2018,36 @@
         <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="I20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.193548387096774</v>
       </c>
@@ -2018,36 +2057,36 @@
         <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -2057,36 +2096,36 @@
         <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -2096,36 +2135,36 @@
         <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="1" t="n">
         <v>44357</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -2135,36 +2174,36 @@
         <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -2174,36 +2213,36 @@
         <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="I25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -2213,36 +2252,36 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="1" t="n">
         <v>44357</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="I26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -2252,36 +2291,36 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -2291,41 +2330,41 @@
         <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="1" t="n">
         <v>44382</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="H28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <v>4</v>
+      <c r="I28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.516129032258065</v>
       </c>
-      <c r="M28" s="0" t="s">
-        <v>57</v>
+      <c r="N28" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,36 +2372,36 @@
         <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="I29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -2372,36 +2411,36 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="I30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -2411,41 +2450,41 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="1" t="n">
         <v>44384</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>1</v>
+      <c r="I31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>4.51612903225807</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>64</v>
+      <c r="N31" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,36 +2492,36 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="1" t="n">
         <v>44358</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="I32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -2492,36 +2531,36 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="1" t="n">
         <v>44358</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.645161290322581</v>
       </c>
@@ -2531,36 +2570,36 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>44356</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="1" t="n">
         <v>44358</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="I34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -2570,36 +2609,36 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>44357</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="1" t="n">
         <v>44359</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H35" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -2609,22 +2648,22 @@
         <v>146</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>44440</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="1" t="n">
         <v>44442</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>72</v>
+      <c r="H36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,36 +2671,36 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="1" t="n">
         <v>44363</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H37" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -2671,36 +2710,36 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="1" t="n">
         <v>44363</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -2710,36 +2749,36 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="1" t="n">
         <v>44363</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K39" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -2749,41 +2788,41 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.516129032258065</v>
       </c>
-      <c r="M40" s="0" t="s">
-        <v>23</v>
+      <c r="N40" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,41 +2830,41 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="I41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K41" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>23</v>
+      <c r="N41" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,36 +2872,36 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="1" t="n">
         <v>44364</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="L42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="M42" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -2872,41 +2911,41 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="L43" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="M43" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M43" s="0" t="s">
-        <v>23</v>
+      <c r="N43" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,36 +2953,36 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="1" t="n">
         <v>44364</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H44" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="L44" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="M44" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -2953,36 +2992,36 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="1" t="n">
         <v>44364</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="0" t="n">
+      <c r="I45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="L45" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -2992,36 +3031,36 @@
         <v>51</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="1" t="n">
         <v>44364</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="L46" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
@@ -3031,36 +3070,36 @@
         <v>52</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>44362</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="1" t="n">
         <v>44364</v>
       </c>
-      <c r="G47" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H47" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K47" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -3070,41 +3109,41 @@
         <v>53</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>44365</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H48" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>23</v>
+      <c r="N48" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,41 +3151,41 @@
         <v>54</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>44365</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="1" t="n">
         <v>44398</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="L49" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>88</v>
+      <c r="N49" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,36 +3193,36 @@
         <v>55</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>44365</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J50" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="L50" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -3193,36 +3232,36 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>44368</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H51" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J51" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -3232,41 +3271,41 @@
         <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>44368</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="I52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.451612903225806</v>
       </c>
-      <c r="M52" s="0" t="s">
-        <v>23</v>
+      <c r="N52" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,41 +3313,41 @@
         <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>44368</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H53" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="K53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="M53" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M53" s="0" t="s">
-        <v>94</v>
+      <c r="N53" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,36 +3355,36 @@
         <v>60</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>44368</v>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H54" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="I54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="L54" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="M54" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -3355,41 +3394,41 @@
         <v>61</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J55" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="L55" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M55" s="0" t="s">
-        <v>98</v>
+      <c r="N55" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,41 +3436,41 @@
         <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J56" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K56" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M56" s="0" t="s">
-        <v>100</v>
+      <c r="N56" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,36 +3478,36 @@
         <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G57" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K57" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="L57" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -3478,36 +3517,36 @@
         <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="L58" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.32258064516129</v>
       </c>
@@ -3517,36 +3556,36 @@
         <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.516129032258065</v>
       </c>
@@ -3556,36 +3595,36 @@
         <v>69</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G60" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H60" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="L60" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="M60" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
@@ -3595,36 +3634,36 @@
         <v>70</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>1</v>
+      <c r="H61" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -3634,41 +3673,41 @@
         <v>71</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J62" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="L62" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M62" s="0" t="s">
-        <v>100</v>
+      <c r="N62" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,41 +3715,41 @@
         <v>72</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>69</v>
+      <c r="F63" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J63" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="L63" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M63" s="0" t="s">
-        <v>100</v>
+      <c r="N63" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,36 +3757,36 @@
         <v>73</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H64" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J64" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K64" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="L64" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.00129032258064516</v>
       </c>
@@ -3757,41 +3796,41 @@
         <v>75</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="1" t="n">
         <v>44398</v>
       </c>
-      <c r="G65" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="H65" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="L65" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.451612903225806</v>
       </c>
-      <c r="M65" s="0" t="s">
-        <v>111</v>
+      <c r="N65" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,36 +3838,36 @@
         <v>76</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>44369</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="1" t="n">
         <v>44371</v>
       </c>
-      <c r="G66" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H66" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J66" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K66" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K66" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
@@ -3838,36 +3877,36 @@
         <v>77</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G67" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H67" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J67" s="0" t="n">
-        <v>1</v>
+      <c r="I67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="M67" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -3877,36 +3916,36 @@
         <v>78</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G68" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H68" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="M68" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
@@ -3916,36 +3955,36 @@
         <v>79</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F69" s="5" t="n">
+      <c r="F69" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G69" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H69" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="K69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="M69" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -3955,36 +3994,36 @@
         <v>80</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H70" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="K70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="M70" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -3994,36 +4033,36 @@
         <v>81</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H71" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="M71" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
@@ -4033,41 +4072,41 @@
         <v>82</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>69</v>
+      <c r="F72" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K72" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="L72" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="M72" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M72" s="0" t="s">
-        <v>23</v>
+      <c r="N72" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,36 +4114,36 @@
         <v>83</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="M73" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -4114,36 +4153,36 @@
         <v>84</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E74" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H74" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="K74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="M74" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -4153,36 +4192,36 @@
         <v>85</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="1" t="n">
         <v>44372</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J75" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K75" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="L75" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="M75" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -4192,41 +4231,41 @@
         <v>86</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>124</v>
+      <c r="F76" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="J76" s="0" t="n">
-        <v>1</v>
+      <c r="J76" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="K76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L76" s="0" t="n">
+      <c r="M76" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.516129032258065</v>
       </c>
-      <c r="M76" s="0" t="s">
-        <v>23</v>
+      <c r="N76" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,41 +4273,41 @@
         <v>87</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>113</v>
+      <c r="F77" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J77" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="L77" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L77" s="0" t="n">
+      <c r="M77" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M77" s="0" t="s">
-        <v>23</v>
+      <c r="N77" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,41 +4315,41 @@
         <v>88</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>113</v>
+      <c r="F78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J78" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K78" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="L78" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="M78" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M78" s="0" t="s">
-        <v>23</v>
+      <c r="N78" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,41 +4357,41 @@
         <v>89</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1" t="n">
         <v>44383</v>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="1" t="n">
         <v>44384</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H79" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L79" s="0" t="n">
+      <c r="M79" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M79" s="0" t="s">
-        <v>131</v>
+      <c r="N79" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,41 +4399,41 @@
         <v>90</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>44384</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H80" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J80" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="L80" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L80" s="0" t="n">
+      <c r="M80" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M80" s="0" t="s">
-        <v>23</v>
+      <c r="N80" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,41 +4441,41 @@
         <v>91</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1" t="n">
         <v>44384</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="1" t="n">
         <v>44417</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K81" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="L81" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L81" s="0" t="n">
+      <c r="M81" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M81" s="0" t="s">
-        <v>23</v>
+      <c r="N81" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,41 +4483,41 @@
         <v>93</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="1" t="n">
         <v>44376</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H82" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J82" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K82" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K82" s="0" t="n">
+      <c r="L82" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L82" s="0" t="n">
+      <c r="M82" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0258064516129032</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>23</v>
+      <c r="N82" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,41 +4525,41 @@
         <v>94</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="1" t="n">
         <v>44376</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H83" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J83" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="L83" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L83" s="0" t="n">
+      <c r="M83" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0258064516129032</v>
       </c>
-      <c r="M83" s="0" t="s">
-        <v>23</v>
+      <c r="N83" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,41 +4567,41 @@
         <v>95</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="H84" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I84" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I84" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K84" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="L84" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L84" s="0" t="n">
+      <c r="M84" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.645161290322581</v>
       </c>
-      <c r="M84" s="0" t="s">
-        <v>140</v>
+      <c r="N84" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,38 +4609,38 @@
         <v>96</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E85" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F85" s="5" t="n">
+      <c r="F85" s="1" t="n">
         <v>44398</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>2</v>
+      <c r="H85" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M85" s="0" t="s">
-        <v>142</v>
+      <c r="N85" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,38 +4648,38 @@
         <v>97</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J86" s="0" t="n">
-        <v>1</v>
+      <c r="H86" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="K86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="L86" s="0" t="n">
+      <c r="M86" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.193548387096774</v>
       </c>
-      <c r="M86" s="0" t="s">
-        <v>144</v>
+      <c r="N86" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,36 +4687,35 @@
         <v>98</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J87" s="0" t="n">
-        <v>1</v>
+      <c r="H87" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L87" s="0" t="n">
+      <c r="M87" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M87" s="0" t="s">
-        <v>23</v>
+      <c r="N87" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,38 +4723,38 @@
         <v>99</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J88" s="0" t="n">
-        <v>1</v>
+      <c r="H88" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L88" s="0" t="n">
+      <c r="M88" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0258064516129032</v>
       </c>
-      <c r="M88" s="0" t="s">
-        <v>23</v>
+      <c r="N88" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,38 +4762,38 @@
         <v>100</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="1" t="n">
         <v>44419</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <v>1</v>
+      <c r="H89" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="K89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L89" s="0" t="n">
+      <c r="M89" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M89" s="0" t="s">
-        <v>148</v>
+      <c r="N89" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,33 +4801,33 @@
         <v>101</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>1</v>
+      <c r="F90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="K90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L90" s="0" t="n">
+      <c r="M90" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -4799,41 +4837,41 @@
         <v>102</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E91" s="1" t="n">
         <v>44385</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="1" t="n">
         <v>44417</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H91" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K91" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="L91" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L91" s="0" t="n">
+      <c r="M91" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M91" s="0" t="s">
-        <v>23</v>
+      <c r="N91" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,36 +4879,35 @@
         <v>110</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>44386</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J92" s="0" t="n">
-        <v>1</v>
+      <c r="H92" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="K92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="L92" s="0" t="n">
+      <c r="M92" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0129032258064516</v>
       </c>
-      <c r="M92" s="0" t="s">
-        <v>23</v>
+      <c r="N92" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,38 +4915,38 @@
         <v>104</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>44386</v>
       </c>
-      <c r="F93" s="5" t="n">
+      <c r="F93" s="1" t="n">
         <v>44392</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J93" s="0" t="n">
-        <v>2</v>
+      <c r="H93" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M93" s="0" t="s">
-        <v>23</v>
+      <c r="N93" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,99 +4954,98 @@
         <v>105</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H94" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="I94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I94" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="J94" s="0" t="n">
-        <v>1</v>
+      <c r="J94" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="K94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L94" s="0" t="n">
+      <c r="M94" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>2.58064516129032</v>
       </c>
-      <c r="M94" s="0" t="s">
-        <v>23</v>
+      <c r="N94" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="G95" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J95" s="0" t="n">
-        <v>1</v>
+      <c r="H95" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M95" s="0" t="s">
-        <v>23</v>
+      <c r="N95" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="G96" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J96" s="0" t="n">
-        <v>1</v>
+      <c r="H96" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="K96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L96" s="0" t="n">
+      <c r="M96" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M96" s="0" t="s">
-        <v>23</v>
+      <c r="N96" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5017,38 +5053,38 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E97" s="1" t="n">
         <v>44390</v>
       </c>
-      <c r="F97" s="5" t="n">
+      <c r="F97" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J97" s="0" t="n">
-        <v>1</v>
+      <c r="H97" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L97" s="0" t="n">
+      <c r="M97" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M97" s="0" t="s">
-        <v>23</v>
+      <c r="N97" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,38 +5092,38 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="F98" s="5" t="n">
+      <c r="F98" s="1" t="n">
         <v>44392</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J98" s="0" t="n">
-        <v>2</v>
+      <c r="H98" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M98" s="0" t="s">
-        <v>23</v>
+      <c r="N98" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,34 +5131,34 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E99" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="F99" s="5" t="n">
+      <c r="F99" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J99" s="0" t="n">
-        <v>1</v>
+      <c r="H99" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="K99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="M99" s="0" t="s">
-        <v>23</v>
+      <c r="N99" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,38 +5166,38 @@
         <v>111</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>1</v>
+      <c r="F100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L100" s="0" t="n">
+      <c r="M100" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M100" s="0" t="s">
-        <v>23</v>
+      <c r="N100" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,41 +5205,41 @@
         <v>112</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="1" t="n">
         <v>44417</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H101" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I101" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="J101" s="0" t="n">
-        <v>1</v>
+      <c r="J101" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L101" s="0" t="n">
+      <c r="M101" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M101" s="0" t="s">
-        <v>23</v>
+      <c r="N101" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,39 +5247,38 @@
         <v>40</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>44361</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H102" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="I102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="J102" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K102" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="L102" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L102" s="0" t="n">
+      <c r="M102" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
-      <c r="M102" s="0" t="s">
-        <v>23</v>
+      <c r="N102" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,38 +5286,38 @@
         <v>114</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E103" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="F103" s="5" t="n">
+      <c r="F103" s="1" t="n">
         <v>44397</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J103" s="0" t="n">
-        <v>1</v>
+      <c r="H103" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L103" s="0" t="n">
+      <c r="M103" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M103" s="0" t="s">
-        <v>23</v>
+      <c r="N103" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,38 +5325,38 @@
         <v>115</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="1" t="n">
         <v>44407</v>
       </c>
-      <c r="G104" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J104" s="0" t="n">
+      <c r="H104" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K104" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="L104" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L104" s="0" t="n">
+      <c r="M104" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M104" s="0" t="s">
-        <v>23</v>
+      <c r="N104" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,41 +5364,41 @@
         <v>114</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E105" s="1" t="n">
         <v>44400</v>
       </c>
-      <c r="F105" s="5" t="n">
+      <c r="F105" s="1" t="n">
         <v>44410</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H105" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="I105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="J105" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K105" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K105" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M105" s="0" t="s">
-        <v>23</v>
+      <c r="N105" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,36 +5406,36 @@
         <v>115</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>113</v>
+      <c r="F106" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I106" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I106" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="J106" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K106" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K106" s="0" t="n">
+      <c r="L106" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L106" s="0" t="n">
+      <c r="M106" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -5410,38 +5445,38 @@
         <v>116</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="F107" s="5" t="n">
+      <c r="F107" s="1" t="n">
         <v>44426</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J107" s="0" t="n">
-        <v>1</v>
+      <c r="H107" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L107" s="0" t="n">
+      <c r="M107" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M107" s="0" t="s">
-        <v>175</v>
+      <c r="N107" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,38 +5484,38 @@
         <v>117</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="1" t="n">
         <v>44426</v>
       </c>
-      <c r="G108" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I108" s="1" t="s">
+      <c r="H108" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.032258064516129</v>
+      </c>
+      <c r="N108" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K108" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L108" s="0" t="n">
-        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
-        <v>0.032258064516129</v>
-      </c>
-      <c r="M108" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,41 +5523,41 @@
         <v>118</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E109" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="F109" s="5" t="n">
+      <c r="F109" s="1" t="n">
         <v>44419</v>
       </c>
-      <c r="G109" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="H109" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="I109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="J109" s="0" t="n">
+      <c r="J109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K109" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K109" s="0" t="n">
+      <c r="L109" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L109" s="0" t="n">
+      <c r="M109" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M109" s="0" t="s">
-        <v>23</v>
+      <c r="N109" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,39 +5565,38 @@
         <v>119</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="H110" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="J110" s="0" t="n">
+      <c r="J110" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K110" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K110" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M110" s="0" t="s">
-        <v>23</v>
+      <c r="N110" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5570,39 +5604,38 @@
         <v>120</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>44403</v>
-      </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="J111" s="0" t="n">
-        <v>1</v>
+      <c r="J111" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="K111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L111" s="0" t="n">
+      <c r="M111" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M111" s="0" t="s">
-        <v>23</v>
+      <c r="N111" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,36 +5643,35 @@
         <v>113</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>44393</v>
       </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J112" s="0" t="n">
+      <c r="H112" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K112" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="L112" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L112" s="0" t="n">
+      <c r="M112" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.774193548387097</v>
       </c>
-      <c r="M112" s="0" t="s">
-        <v>23</v>
+      <c r="N112" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,31 +5679,30 @@
         <v>122</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1" t="n">
         <v>44411</v>
       </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J113" s="0" t="n">
-        <v>1</v>
+      <c r="H113" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="K113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="L113" s="0" t="n">
+      <c r="M113" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0129032258064516</v>
       </c>
@@ -5681,38 +5712,38 @@
         <v>123</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>44411</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G114" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J114" s="0" t="n">
+      <c r="H114" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K114" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K114" s="0" t="n">
+      <c r="L114" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="L114" s="0" t="n">
+      <c r="M114" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0129032258064516</v>
       </c>
-      <c r="M114" s="0" t="s">
-        <v>23</v>
+      <c r="N114" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,32 +5751,31 @@
         <v>124</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E115" s="1" t="n">
         <v>44411</v>
       </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J115" s="0" t="n">
+      <c r="H115" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K115" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="L115" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="M115" s="0" t="s">
-        <v>23</v>
+      <c r="N115" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,31 +5783,30 @@
         <v>124</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>44411</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J116" s="0" t="n">
-        <v>1</v>
+      <c r="H116" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="K116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L116" s="0" t="n">
+      <c r="M116" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0258064516129032</v>
       </c>
@@ -5787,35 +5816,35 @@
         <v>125</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E117" s="1" t="n">
         <v>44412</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="1" t="n">
         <v>44413</v>
       </c>
-      <c r="G117" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H117" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I117" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="L117" s="0" t="n">
+      <c r="J117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M117" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M117" s="0" t="s">
-        <v>23</v>
+      <c r="N117" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,38 +5852,38 @@
         <v>126</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E118" s="1" t="n">
         <v>44412</v>
       </c>
-      <c r="F118" s="5" t="n">
+      <c r="F118" s="1" t="n">
         <v>44427</v>
       </c>
-      <c r="G118" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J118" s="0" t="n">
-        <v>1</v>
+      <c r="H118" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M118" s="0" t="s">
-        <v>23</v>
+      <c r="N118" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,31 +5891,30 @@
         <v>127</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>44414</v>
       </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J119" s="0" t="n">
-        <v>1</v>
+      <c r="H119" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="K119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L119" s="0" t="n">
+      <c r="M119" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
@@ -5896,38 +5924,38 @@
         <v>128</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E120" s="1" t="n">
         <v>44418</v>
       </c>
-      <c r="F120" s="5" t="n">
+      <c r="F120" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G120" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J120" s="0" t="n">
-        <v>1</v>
+      <c r="H120" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="K120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L120" s="0" t="n">
+      <c r="M120" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M120" s="0" t="s">
-        <v>23</v>
+      <c r="N120" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,31 +5963,30 @@
         <v>129</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="n">
         <v>44418</v>
       </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>1</v>
+      <c r="H121" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="K121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L121" s="0" t="n">
+      <c r="M121" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.903225806451613</v>
       </c>
@@ -5969,38 +5996,38 @@
         <v>130</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>44418</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G122" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J122" s="0" t="n">
-        <v>1</v>
+      <c r="H122" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M122" s="0" t="s">
-        <v>198</v>
+      <c r="N122" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,38 +6035,38 @@
         <v>131</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E123" s="1" t="n">
         <v>44418</v>
       </c>
-      <c r="F123" s="5" t="n">
+      <c r="F123" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G123" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <v>1</v>
+      <c r="H123" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="K123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="L123" s="0" t="n">
+      <c r="M123" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.193548387096774</v>
       </c>
-      <c r="M123" s="0" t="s">
-        <v>23</v>
+      <c r="N123" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,38 +6074,38 @@
         <v>132</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E124" s="1" t="n">
         <v>44419</v>
       </c>
-      <c r="F124" s="5" t="n">
+      <c r="F124" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G124" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J124" s="0" t="n">
-        <v>1</v>
+      <c r="H124" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="K124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L124" s="0" t="n">
+      <c r="M124" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M124" s="0" t="s">
-        <v>201</v>
+      <c r="N124" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,68 +6113,67 @@
         <v>121</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E125" s="1" t="n">
         <v>44410</v>
       </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J125" s="0" t="n">
+      <c r="H125" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K125" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K125" s="0" t="n">
+      <c r="L125" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L125" s="0" t="n">
+      <c r="M125" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
-      <c r="M125" s="0" t="s">
-        <v>23</v>
+      <c r="N125" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E126" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="F126" s="5" t="n">
+      <c r="F126" s="1" t="n">
         <v>44421</v>
       </c>
-      <c r="G126" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J126" s="0" t="n">
-        <v>1</v>
+      <c r="H126" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M126" s="0" t="s">
-        <v>23</v>
+      <c r="L126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6155,38 +6181,38 @@
         <v>128</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" s="1" t="n">
         <v>44424</v>
       </c>
-      <c r="F127" s="5" t="n">
+      <c r="F127" s="1" t="n">
         <v>44425</v>
       </c>
-      <c r="G127" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J127" s="0" t="n">
-        <v>1</v>
+      <c r="H127" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="K127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="L127" s="0" t="n">
+      <c r="M127" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.193548387096774</v>
       </c>
-      <c r="M127" s="0" t="s">
-        <v>23</v>
+      <c r="N127" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,28 +6220,28 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E128" s="1" t="n">
         <v>44419</v>
       </c>
-      <c r="F128" s="5" t="n">
+      <c r="F128" s="1" t="n">
         <v>44430</v>
       </c>
-      <c r="G128" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M128" s="0" t="s">
-        <v>23</v>
+      <c r="H128" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,39 +6249,38 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1" t="n">
         <v>44419</v>
       </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H129" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="I129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="J129" s="0" t="n">
-        <v>1</v>
+      <c r="J129" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L129" s="0" t="n">
+      <c r="M129" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.774193548387097</v>
       </c>
-      <c r="M129" s="0" t="s">
-        <v>23</v>
+      <c r="N129" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,38 +6288,38 @@
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E130" s="1" t="n">
         <v>44431</v>
       </c>
-      <c r="F130" s="5" t="n">
+      <c r="F130" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="G130" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J130" s="0" t="n">
+      <c r="H130" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K130" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K130" s="0" t="n">
+      <c r="L130" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L130" s="0" t="n">
+      <c r="M130" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M130" s="0" t="s">
-        <v>23</v>
+      <c r="N130" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6302,116 +6327,116 @@
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E131" s="1" t="n">
         <v>44431</v>
       </c>
-      <c r="F131" s="5" t="n">
+      <c r="F131" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="G131" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J131" s="0" t="n">
+      <c r="H131" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K131" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K131" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M131" s="0" t="s">
-        <v>23</v>
+      <c r="N131" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E132" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="F132" s="5" t="n">
+      <c r="F132" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="G132" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I132" s="1" t="s">
+      <c r="H132" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="M132" s="0" t="s">
-        <v>23</v>
+      <c r="J132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E133" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="F133" s="5" t="n">
+      <c r="F133" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="G133" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M133" s="0" t="s">
-        <v>23</v>
+      <c r="H133" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N133" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E134" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="F134" s="5" t="n">
+      <c r="F134" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="G134" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M134" s="0" t="s">
-        <v>23</v>
+      <c r="H134" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N134" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,28 +6444,28 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="F135" s="5" t="n">
+      <c r="F135" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="G135" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M135" s="0" t="s">
-        <v>23</v>
+      <c r="H135" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,28 +6473,28 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="5" t="n">
+        <v>217</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="F136" s="5" t="n">
+      <c r="F136" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="G136" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M136" s="0" t="s">
-        <v>23</v>
+      <c r="H136" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N136" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,32 +6502,32 @@
         <v>131</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="1" t="n">
         <v>44431</v>
       </c>
-      <c r="F137" s="5" t="n">
+      <c r="F137" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="G137" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L137" s="0" t="n">
+      <c r="H137" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M137" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M137" s="0" t="s">
-        <v>23</v>
+      <c r="N137" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,55 +6535,55 @@
         <v>135</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="F138" s="5" t="n">
+      <c r="F138" s="1" t="n">
         <v>44441</v>
       </c>
-      <c r="G138" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L138" s="0" t="n">
+      <c r="H138" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M138" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M138" s="0" t="s">
-        <v>23</v>
+      <c r="N138" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="F139" s="5" t="n">
+      <c r="F139" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="G139" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M139" s="0" t="s">
-        <v>23</v>
+      <c r="H139" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N139" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,32 +6591,32 @@
         <v>136</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E140" s="1" t="n">
         <v>44433</v>
       </c>
-      <c r="F140" s="5" t="n">
+      <c r="F140" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="G140" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L140" s="0" t="n">
+      <c r="H140" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M140" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M140" s="0" t="s">
-        <v>23</v>
+      <c r="N140" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,30 +6624,29 @@
         <v>138</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1" t="n">
         <v>44435</v>
       </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H141" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L141" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M141" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M141" s="0" t="s">
-        <v>23</v>
+      <c r="N141" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,38 +6654,38 @@
         <v>139</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E142" s="1" t="n">
         <v>44435</v>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="1" t="n">
         <v>44449</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J142" s="0" t="n">
-        <v>1</v>
+      <c r="H142" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="K142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L142" s="0" t="n">
+      <c r="M142" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.774193548387097</v>
       </c>
-      <c r="M142" s="0" t="s">
-        <v>23</v>
+      <c r="N142" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,36 +6693,35 @@
         <v>140</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1" t="n">
         <v>44435</v>
       </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J143" s="0" t="n">
+      <c r="H143" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K143" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K143" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M143" s="0" t="s">
-        <v>23</v>
+      <c r="N143" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,29 +6729,29 @@
         <v>141</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E144" s="1" t="n">
         <v>44435</v>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="G144" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L144" s="0" t="n">
+      <c r="H144" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M144" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M144" s="0" t="s">
-        <v>23</v>
+      <c r="N144" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,25 +6759,25 @@
         <v>142</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="F145" s="5" t="n">
+      <c r="F145" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="G145" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M145" s="0" t="s">
-        <v>23</v>
+      <c r="H145" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,25 +6785,25 @@
         <v>143</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E146" s="1" t="n">
         <v>44437</v>
       </c>
-      <c r="F146" s="5" t="n">
+      <c r="F146" s="1" t="n">
         <v>44441</v>
       </c>
-      <c r="G146" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M146" s="0" t="s">
-        <v>23</v>
+      <c r="H146" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,41 +6811,41 @@
         <v>142</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E147" s="1" t="n">
         <v>44452</v>
       </c>
-      <c r="F147" s="5" t="n">
+      <c r="F147" s="1" t="n">
         <v>44452</v>
       </c>
-      <c r="G147" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="H147" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="I147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I147" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="J147" s="0" t="n">
-        <v>1</v>
+      <c r="J147" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="K147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L147" s="0" t="n">
+      <c r="M147" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M147" s="0" t="s">
-        <v>230</v>
+      <c r="N147" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,38 +6853,38 @@
         <v>143</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E148" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="E148" s="1" t="n">
         <v>44452</v>
       </c>
-      <c r="F148" s="5" t="n">
+      <c r="F148" s="1" t="n">
         <v>44452</v>
       </c>
-      <c r="G148" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J148" s="0" t="n">
-        <v>1</v>
+      <c r="H148" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="K148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L148" s="0" t="n">
+      <c r="M148" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M148" s="0" t="s">
-        <v>23</v>
+      <c r="N148" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,38 +6892,38 @@
         <v>144</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E149" s="1" t="n">
         <v>44456</v>
       </c>
-      <c r="F149" s="5" t="n">
+      <c r="F149" s="1" t="n">
         <v>44459</v>
       </c>
-      <c r="G149" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J149" s="0" t="n">
+      <c r="H149" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K149" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K149" s="0" t="n">
+      <c r="L149" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L149" s="0" t="n">
+      <c r="M149" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M149" s="0" t="s">
-        <v>23</v>
+      <c r="N149" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,34 +6931,34 @@
         <v>145</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E150" s="1" t="n">
         <v>44453</v>
       </c>
-      <c r="F150" s="5" t="n">
+      <c r="F150" s="1" t="n">
         <v>44453</v>
       </c>
-      <c r="G150" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J150" s="0" t="n">
+      <c r="H150" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K150" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K150" s="0" t="n">
+      <c r="L150" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="M150" s="0" t="s">
-        <v>23</v>
+      <c r="N150" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,38 +6966,38 @@
         <v>146</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E151" s="1" t="n">
         <v>44453</v>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="F151" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="G151" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J151" s="0" t="n">
-        <v>1</v>
+      <c r="H151" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="K151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L151" s="0" t="n">
+      <c r="M151" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M151" s="0" t="s">
-        <v>23</v>
+      <c r="N151" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,33 +7005,32 @@
         <v>147</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J152" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L152" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.387096774193548</v>
       </c>
-      <c r="M152" s="0" t="s">
-        <v>23</v>
+      <c r="N152" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7016,36 +7038,35 @@
         <v>148</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E153" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J153" s="0" t="n">
-        <v>1</v>
+      <c r="H153" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="K153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L153" s="0" t="n">
+      <c r="M153" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M153" s="0" t="s">
-        <v>23</v>
+      <c r="N153" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,38 +7074,38 @@
         <v>148</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E154" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="F154" s="5" t="n">
+      <c r="F154" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="G154" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <v>1</v>
+      <c r="H154" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M154" s="0" t="s">
-        <v>23</v>
+      <c r="N154" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,35 +7113,35 @@
         <v>49</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E155" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="F155" s="5" t="n">
+      <c r="F155" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="G155" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J155" s="0" t="n">
+      <c r="H155" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K155" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L155" s="0" t="n">
+      <c r="M155" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0</v>
       </c>
-      <c r="M155" s="0" t="s">
-        <v>23</v>
+      <c r="N155" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7128,33 +7149,32 @@
         <v>150</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F156" s="5"/>
-      <c r="G156" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J156" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K156" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K156" s="0" t="n">
+      <c r="L156" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L156" s="0" t="n">
+      <c r="M156" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M156" s="0" t="s">
-        <v>23</v>
+      <c r="N156" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,38 +7182,38 @@
         <v>151</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E157" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="F157" s="5" t="n">
+      <c r="F157" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="G157" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J157" s="0" t="n">
+      <c r="H157" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K157" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K157" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M157" s="0" t="s">
-        <v>23</v>
+      <c r="N157" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7201,38 +7221,38 @@
         <v>152</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E158" s="1" t="n">
         <v>44461</v>
       </c>
-      <c r="F158" s="5" t="n">
+      <c r="F158" s="1" t="n">
         <v>44462</v>
       </c>
-      <c r="G158" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J158" s="0" t="n">
-        <v>2</v>
+      <c r="H158" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L158" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M158" s="0" t="s">
-        <v>23</v>
+      <c r="N158" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,33 +7260,32 @@
         <v>153</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="5"/>
-      <c r="G159" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J159" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="K159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L159" s="0" t="n">
+      <c r="M159" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.645161290322581</v>
       </c>
-      <c r="M159" s="0" t="s">
-        <v>23</v>
+      <c r="N159" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,28 +7293,27 @@
         <v>154</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E160" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="F160" s="5"/>
-      <c r="G160" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J160" s="0" t="n">
+      <c r="H160" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K160" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K160" s="0" t="n">
+      <c r="L160" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7304,30 +7322,29 @@
         <v>154</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="I161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="J161" s="0" t="n">
+      <c r="J161" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K161" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K161" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.129032258064516</v>
       </c>
-      <c r="M161" s="0" t="s">
-        <v>23</v>
+      <c r="N161" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,33 +7352,32 @@
         <v>155</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J162" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K162" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K162" s="0" t="n">
+      <c r="L162" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L162" s="0" t="n">
+      <c r="M162" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M162" s="0" t="s">
-        <v>23</v>
+      <c r="N162" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,38 +7385,38 @@
         <v>156</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E163" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="E163" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="1" t="n">
         <v>44463</v>
       </c>
-      <c r="G163" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>1</v>
+      <c r="H163" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="K163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L163" s="0" t="n">
+      <c r="M163" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M163" s="0" t="s">
-        <v>23</v>
+      <c r="N163" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,33 +7424,38 @@
         <v>157</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" s="5"/>
-      <c r="G164" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J164" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="G164" s="1" t="n">
+        <v>44476</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="K164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L164" s="0" t="n">
+      <c r="M164" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.032258064516129</v>
       </c>
-      <c r="M164" s="0" t="s">
-        <v>23</v>
+      <c r="N164" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,33 +7463,38 @@
         <v>158</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" s="5"/>
-      <c r="G165" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="G165" s="1" t="n">
+        <v>44476</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="K165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="L165" s="0" t="n">
+      <c r="M165" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.0645161290322581</v>
       </c>
-      <c r="M165" s="0" t="s">
-        <v>23</v>
+      <c r="N165" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,41 +7502,469 @@
         <v>159</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" s="5"/>
-      <c r="G166" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="G166" s="1" t="n">
+        <v>44476</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="K166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L166" s="0" t="n">
+      <c r="M166" s="0" t="n">
         <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
         <v>0.258064516129032</v>
       </c>
-      <c r="M166" s="0" t="s">
-        <v>23</v>
+      <c r="N166" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M167" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.516129032258065</v>
+      </c>
+      <c r="N167" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G168" s="1" t="n">
+        <v>44497</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.387096774193548</v>
+      </c>
+      <c r="N168" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G169" s="1" t="n">
+        <v>44511</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K169" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.258064516129032</v>
+      </c>
+      <c r="N169" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G170" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K170" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M170" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.645161290322581</v>
+      </c>
+      <c r="N170" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>44545</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K171" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.129032258064516</v>
+      </c>
+      <c r="N171" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M172" s="9"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A172" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>44474</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.387096774193548</v>
+      </c>
+      <c r="N172" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>44535</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K173" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M173" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.774193548387097</v>
+      </c>
+      <c r="N173" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G174" s="1" t="n">
+        <v>44897</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.258064516129032</v>
+      </c>
+      <c r="N174" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G175" s="1" t="n">
+        <v>44910</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M175" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.0645161290322581</v>
+      </c>
+      <c r="N175" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>44517</v>
+      </c>
+      <c r="G176" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L176" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.258064516129032</v>
+      </c>
+      <c r="N176" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>44517</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H177" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M177" s="0" t="n">
+        <f aca="false">Table1[[#This Row],[Hours]]/7.75</f>
+        <v>0.0774193548387097</v>
+      </c>
+      <c r="N177" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D134 D166:D1048576 D139:D155">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Y" dxfId="0">
@@ -7520,7 +7974,7 @@
       <formula>NOT(ISERROR(SEARCH("N",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C134 C166:C1048576 C139:C159">
+  <conditionalFormatting sqref="C1:C134 C139:C159 C166:C1048576">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Y" dxfId="2">
       <formula>NOT(ISERROR(SEARCH("Y",C1)))</formula>
     </cfRule>
@@ -7601,49 +8055,49 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
